--- a/medicine/Pharmacie/Lilium_superbum/Lilium_superbum.xlsx
+++ b/medicine/Pharmacie/Lilium_superbum/Lilium_superbum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lilium superbum, le lis superbe, est une espèce de lis native de l'est et du centre de l'Amérique du Nord.  
 La plante peut atteindre 2,5 mètres de haut et porter jusqu'à 40 fleurs par tige. Les fleurs peuvent être jaunes ou orange avec des taches bordeaux ou marron.
@@ -512,7 +524,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lilium fortunofulgidum Roane &amp; J.N. Henry
 Lilium gazarubrum Roane &amp; J.N. Henry
